--- a/Code/Results/Cases/Case_6_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_46/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.311124741278547</v>
+        <v>0.989464478743713</v>
       </c>
       <c r="C2">
-        <v>0.5092053404567878</v>
+        <v>0.1174836072830914</v>
       </c>
       <c r="D2">
-        <v>0.02992363017789756</v>
+        <v>0.04600953004044328</v>
       </c>
       <c r="E2">
-        <v>0.05464804776283216</v>
+        <v>0.05155685387556375</v>
       </c>
       <c r="F2">
-        <v>6.805775220053278</v>
+        <v>7.142435250819716</v>
       </c>
       <c r="G2">
-        <v>0.0008169370199952411</v>
+        <v>0.0008545798084741896</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2871604676488602</v>
+        <v>0.2834189590930123</v>
       </c>
       <c r="K2">
-        <v>0.6304640175738427</v>
+        <v>1.014439103418084</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.998249442567158</v>
+        <v>0.8643095565141721</v>
       </c>
       <c r="C3">
-        <v>0.4362689458654359</v>
+        <v>0.1008638454370754</v>
       </c>
       <c r="D3">
-        <v>0.02527636237775965</v>
+        <v>0.03957688441197149</v>
       </c>
       <c r="E3">
-        <v>0.04886119828508839</v>
+        <v>0.04576424379231625</v>
       </c>
       <c r="F3">
-        <v>6.083665885563704</v>
+        <v>6.456331548549883</v>
       </c>
       <c r="G3">
-        <v>0.0008282653476737062</v>
+        <v>0.0008635947620551283</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2547593344345103</v>
+        <v>0.2532838546753595</v>
       </c>
       <c r="K3">
-        <v>0.5438123442168816</v>
+        <v>0.8832893299348257</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.811753226671641</v>
+        <v>0.7896802145559434</v>
       </c>
       <c r="C4">
-        <v>0.3929162016476937</v>
+        <v>0.09105410156281835</v>
       </c>
       <c r="D4">
-        <v>0.02254243769514375</v>
+        <v>0.03575395605854936</v>
       </c>
       <c r="E4">
-        <v>0.04547726614441316</v>
+        <v>0.04237393590380734</v>
       </c>
       <c r="F4">
-        <v>5.652510396791399</v>
+        <v>6.042743797871452</v>
       </c>
       <c r="G4">
-        <v>0.0008353598994344257</v>
+        <v>0.0008692641283727946</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2354854477127475</v>
+        <v>0.2352328685506677</v>
       </c>
       <c r="K4">
-        <v>0.4921969599023654</v>
+        <v>0.8052384548338409</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.736979461649241</v>
+        <v>0.7597651312285905</v>
       </c>
       <c r="C5">
-        <v>0.3755590807970464</v>
+        <v>0.08714426440825207</v>
       </c>
       <c r="D5">
-        <v>0.02145354688126133</v>
+        <v>0.03422262463853798</v>
       </c>
       <c r="E5">
-        <v>0.0441364418974004</v>
+        <v>0.04103034314985976</v>
       </c>
       <c r="F5">
-        <v>5.479459339301656</v>
+        <v>5.875872473577942</v>
       </c>
       <c r="G5">
-        <v>0.0008382893266951141</v>
+        <v>0.000871610120729832</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.227767366830534</v>
+        <v>0.2279777482088718</v>
       </c>
       <c r="K5">
-        <v>0.4715094513635805</v>
+        <v>0.7739863177758934</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.724632270324463</v>
+        <v>0.7548261083759087</v>
       </c>
       <c r="C6">
-        <v>0.372694275010474</v>
+        <v>0.08650001876041813</v>
       </c>
       <c r="D6">
-        <v>0.0212741281730402</v>
+        <v>0.03396980441583253</v>
       </c>
       <c r="E6">
-        <v>0.04391598438662214</v>
+        <v>0.04080942882070104</v>
       </c>
       <c r="F6">
-        <v>5.450872708144914</v>
+        <v>5.848257161623394</v>
       </c>
       <c r="G6">
-        <v>0.000838778164644913</v>
+        <v>0.0008720018800108195</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2264934703109702</v>
+        <v>0.2267787739616693</v>
       </c>
       <c r="K6">
-        <v>0.468093764832858</v>
+        <v>0.7688285180600758</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.810740072541392</v>
+        <v>0.7892748328644075</v>
       </c>
       <c r="C7">
-        <v>0.392680926624621</v>
+        <v>0.09100103149135919</v>
       </c>
       <c r="D7">
-        <v>0.02252765649179622</v>
+        <v>0.03573320321831375</v>
       </c>
       <c r="E7">
-        <v>0.04545903427842291</v>
+        <v>0.04235566677719405</v>
       </c>
       <c r="F7">
-        <v>5.650166376238303</v>
+        <v>6.040486886104503</v>
       </c>
       <c r="G7">
-        <v>0.0008353992471983502</v>
+        <v>0.0008692956202106198</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2353808322619528</v>
+        <v>0.2351346315180791</v>
       </c>
       <c r="K7">
-        <v>0.4919166255504166</v>
+        <v>0.8048148193160785</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.20196223712918</v>
+        <v>0.9458129923123977</v>
       </c>
       <c r="C8">
-        <v>0.4837278259616653</v>
+        <v>0.1116638329165625</v>
       </c>
       <c r="D8">
-        <v>0.02829335001084132</v>
+        <v>0.04376188888712207</v>
       </c>
       <c r="E8">
-        <v>0.05261481088971109</v>
+        <v>0.04952259622469768</v>
       </c>
       <c r="F8">
-        <v>6.553984332770341</v>
+        <v>6.904106541440115</v>
       </c>
       <c r="G8">
-        <v>0.0008208163649764031</v>
+        <v>0.0008576615464542433</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2758471030174263</v>
+        <v>0.2729264205069484</v>
       </c>
       <c r="K8">
-        <v>0.6002225853849907</v>
+        <v>0.9686617160065509</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.02333295545651</v>
+        <v>1.273416325048942</v>
       </c>
       <c r="C9">
-        <v>0.6762494597072077</v>
+        <v>0.1559049750779593</v>
       </c>
       <c r="D9">
-        <v>0.04080062514921678</v>
+        <v>0.06077994686611987</v>
       </c>
       <c r="E9">
-        <v>0.06821939540726873</v>
+        <v>0.06509203441333611</v>
       </c>
       <c r="F9">
-        <v>8.445341381871572</v>
+        <v>8.671843133096701</v>
       </c>
       <c r="G9">
-        <v>0.0007931457072261061</v>
+        <v>0.0008358140971655682</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3611549751636574</v>
+        <v>0.3512726359301865</v>
       </c>
       <c r="K9">
-        <v>0.8280018501337594</v>
+        <v>1.313062093034461</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.675736771357549</v>
+        <v>1.531507317225248</v>
       </c>
       <c r="C10">
-        <v>0.8305739215557821</v>
+        <v>0.1916165644711327</v>
       </c>
       <c r="D10">
-        <v>0.05113859673636512</v>
+        <v>0.07448334857946293</v>
       </c>
       <c r="E10">
-        <v>0.08102162887984576</v>
+        <v>0.07776402985538056</v>
       </c>
       <c r="F10">
-        <v>9.943416907103028</v>
+        <v>10.03664223405377</v>
       </c>
       <c r="G10">
-        <v>0.0007730938645061619</v>
+        <v>0.0008201994523275735</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4291497059710139</v>
+        <v>0.4124421721868998</v>
       </c>
       <c r="K10">
-        <v>1.009322370499774</v>
+        <v>1.585650571450543</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.987583523615001</v>
+        <v>1.653962998937175</v>
       </c>
       <c r="C11">
-        <v>0.9048006867582501</v>
+        <v>0.2088087067988056</v>
       </c>
       <c r="D11">
-        <v>0.05620790616112714</v>
+        <v>0.08108933741864632</v>
       </c>
       <c r="E11">
-        <v>0.08724213657676572</v>
+        <v>0.08387820962819603</v>
       </c>
       <c r="F11">
-        <v>10.65841545846627</v>
+        <v>10.67728396665007</v>
       </c>
       <c r="G11">
-        <v>0.0007639531247521957</v>
+        <v>0.0008131511989684631</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.46170533667906</v>
+        <v>0.441321504511734</v>
       </c>
       <c r="K11">
-        <v>1.096122651409175</v>
+        <v>1.715345749000164</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.108295827908648</v>
+        <v>1.701183506315402</v>
       </c>
       <c r="C12">
-        <v>0.9336148767122552</v>
+        <v>0.2154797851463996</v>
       </c>
       <c r="D12">
-        <v>0.05819242354449727</v>
+        <v>0.08365532590859459</v>
       </c>
       <c r="E12">
-        <v>0.08966574700696128</v>
+        <v>0.08625179103493963</v>
       </c>
       <c r="F12">
-        <v>10.93500757573548</v>
+        <v>10.92324972779829</v>
       </c>
       <c r="G12">
-        <v>0.0007604809214847133</v>
+        <v>0.0008104862817613793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4743152068540155</v>
+        <v>0.4524349137578838</v>
       </c>
       <c r="K12">
-        <v>1.129745068987702</v>
+        <v>1.765417973689068</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.082173379148742</v>
+        <v>1.690973799311081</v>
       </c>
       <c r="C13">
-        <v>0.9273755052191461</v>
+        <v>0.2140354639106903</v>
       </c>
       <c r="D13">
-        <v>0.05776191576037348</v>
+        <v>0.08309963677940146</v>
       </c>
       <c r="E13">
-        <v>0.08914055399153398</v>
+        <v>0.08573786565697716</v>
       </c>
       <c r="F13">
-        <v>10.87516053410667</v>
+        <v>10.87011764565466</v>
       </c>
       <c r="G13">
-        <v>0.0007612293484845519</v>
+        <v>0.0008110601030361628</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4715860451067471</v>
+        <v>0.4500330959034926</v>
       </c>
       <c r="K13">
-        <v>1.122467994223442</v>
+        <v>1.754588882232468</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.997459096512785</v>
+        <v>1.657830068819351</v>
       </c>
       <c r="C14">
-        <v>0.907156271416909</v>
+        <v>0.2093541630625708</v>
       </c>
       <c r="D14">
-        <v>0.05636979465041492</v>
+        <v>0.08129908292787746</v>
       </c>
       <c r="E14">
-        <v>0.08744009395812569</v>
+        <v>0.08407226756977337</v>
       </c>
       <c r="F14">
-        <v>10.68104732581742</v>
+        <v>10.6974489428228</v>
       </c>
       <c r="G14">
-        <v>0.0007636677326985152</v>
+        <v>0.0008129318960425864</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4627368017571882</v>
+        <v>0.442232092874093</v>
       </c>
       <c r="K14">
-        <v>1.098872843315533</v>
+        <v>1.719445110113867</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.945925787151282</v>
+        <v>1.637643132144092</v>
       </c>
       <c r="C15">
-        <v>0.8948675948099094</v>
+        <v>0.2065084673412372</v>
       </c>
       <c r="D15">
-        <v>0.0555259331925626</v>
+        <v>0.08020493589932443</v>
       </c>
       <c r="E15">
-        <v>0.086407737674282</v>
+        <v>0.08305988756349691</v>
       </c>
       <c r="F15">
-        <v>10.56294117930207</v>
+        <v>10.59213986432599</v>
       </c>
       <c r="G15">
-        <v>0.0007651596409325751</v>
+        <v>0.0008140788358429046</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4573546676637221</v>
+        <v>0.4374776964342146</v>
       </c>
       <c r="K15">
-        <v>1.084522575833731</v>
+        <v>1.698048023014422</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.655697031536874</v>
+        <v>1.5236162745135</v>
       </c>
       <c r="C16">
-        <v>0.8258143231216764</v>
+        <v>0.1905140902751157</v>
       </c>
       <c r="D16">
-        <v>0.05081566699813322</v>
+        <v>0.0740600192337908</v>
       </c>
       <c r="E16">
-        <v>0.08062397808904009</v>
+        <v>0.07737214627449518</v>
       </c>
       <c r="F16">
-        <v>9.897447220810477</v>
+        <v>9.995216050329617</v>
       </c>
       <c r="G16">
-        <v>0.0007736901946290567</v>
+        <v>0.0008206608649252571</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4270587180620566</v>
+        <v>0.410578169207966</v>
       </c>
       <c r="K16">
-        <v>1.003747360499304</v>
+        <v>1.577300820337342</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.481807636389306</v>
+        <v>1.455039816305572</v>
       </c>
       <c r="C17">
-        <v>0.7845659675836032</v>
+        <v>0.1809609261679981</v>
       </c>
       <c r="D17">
-        <v>0.04802787409862219</v>
+        <v>0.07039293020513782</v>
       </c>
       <c r="E17">
-        <v>0.07718460385283521</v>
+        <v>0.07397777825237029</v>
       </c>
       <c r="F17">
-        <v>9.498438836273834</v>
+        <v>9.634440688747105</v>
       </c>
       <c r="G17">
-        <v>0.0007789132552577928</v>
+        <v>0.0008247102550285405</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.408920686917611</v>
+        <v>0.3943632559500969</v>
       </c>
       <c r="K17">
-        <v>0.9553863115134362</v>
+        <v>1.504778379290087</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.383177131119226</v>
+        <v>1.416063327350059</v>
       </c>
       <c r="C18">
-        <v>0.7612107841966917</v>
+        <v>0.1755536329250873</v>
       </c>
       <c r="D18">
-        <v>0.04645805268162206</v>
+        <v>0.06831801476000265</v>
       </c>
       <c r="E18">
-        <v>0.07524293632384271</v>
+        <v>0.07205779303264848</v>
       </c>
       <c r="F18">
-        <v>9.272023537897127</v>
+        <v>9.428759475536083</v>
       </c>
       <c r="G18">
-        <v>0.0007819161896152997</v>
+        <v>0.0008270447827941307</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3986377131395074</v>
+        <v>0.3851342221067995</v>
       </c>
       <c r="K18">
-        <v>0.9279673573585114</v>
+        <v>1.463591724246157</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.350008080196972</v>
+        <v>1.402943273770916</v>
       </c>
       <c r="C19">
-        <v>0.7533631475946549</v>
+        <v>0.1737371423874521</v>
       </c>
       <c r="D19">
-        <v>0.04593198360808515</v>
+        <v>0.06762106742813501</v>
       </c>
       <c r="E19">
-        <v>0.07459150097685452</v>
+        <v>0.07141305291677824</v>
       </c>
       <c r="F19">
-        <v>9.195864856292616</v>
+        <v>9.359418398665412</v>
       </c>
       <c r="G19">
-        <v>0.0007829329418302794</v>
+        <v>0.0008278362526752046</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3951804364436811</v>
+        <v>0.3820254169804826</v>
       </c>
       <c r="K19">
-        <v>0.9187483383889941</v>
+        <v>1.449733067369294</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.500171977120544</v>
+        <v>1.462290741254947</v>
       </c>
       <c r="C20">
-        <v>0.78891781132603</v>
+        <v>0.1819686611085984</v>
       </c>
       <c r="D20">
-        <v>0.04832107688420706</v>
+        <v>0.07077967443816391</v>
       </c>
       <c r="E20">
-        <v>0.07754687345729394</v>
+        <v>0.0743357106094038</v>
       </c>
       <c r="F20">
-        <v>9.540588030760432</v>
+        <v>9.67265317052329</v>
       </c>
       <c r="G20">
-        <v>0.0007783574326514268</v>
+        <v>0.0008242786548287</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4108357143337713</v>
+        <v>0.3960791084851252</v>
       </c>
       <c r="K20">
-        <v>0.9604924581661578</v>
+        <v>1.512443088557205</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.022266466406336</v>
+        <v>1.667541066667837</v>
       </c>
       <c r="C21">
-        <v>0.9130748392995258</v>
+        <v>0.2107245952425387</v>
       </c>
       <c r="D21">
-        <v>0.05677682407196016</v>
+        <v>0.08182610512468358</v>
       </c>
       <c r="E21">
-        <v>0.08793761505283371</v>
+        <v>0.08455984279898843</v>
       </c>
       <c r="F21">
-        <v>10.7378955503097</v>
+        <v>10.74806996239238</v>
       </c>
       <c r="G21">
-        <v>0.0007629518855171786</v>
+        <v>0.0008123820266300858</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.465327961227743</v>
+        <v>0.4445183949685543</v>
       </c>
       <c r="K21">
-        <v>1.105781687263118</v>
+        <v>1.729740421099649</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.379054552549349</v>
+        <v>1.806704739515084</v>
       </c>
       <c r="C22">
-        <v>0.9984140402877415</v>
+        <v>0.2304698234234479</v>
       </c>
       <c r="D22">
-        <v>0.06268890023446261</v>
+        <v>0.08942751973739149</v>
       </c>
       <c r="E22">
-        <v>0.09513197155147779</v>
+        <v>0.09158619920697575</v>
       </c>
       <c r="F22">
-        <v>11.55505695077409</v>
+        <v>11.47085116928815</v>
       </c>
       <c r="G22">
-        <v>0.0007528155456227972</v>
+        <v>0.0008046286426830458</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5026137765375012</v>
+        <v>0.4772254180515318</v>
       </c>
       <c r="K22">
-        <v>1.205207829856775</v>
+        <v>1.877430663638563</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.187029756302707</v>
+        <v>1.731925450317078</v>
       </c>
       <c r="C23">
-        <v>0.9524336615640436</v>
+        <v>0.219835165237896</v>
       </c>
       <c r="D23">
-        <v>0.05949350772208106</v>
+        <v>0.0853315055160877</v>
       </c>
       <c r="E23">
-        <v>0.0912510540155651</v>
+        <v>0.08780162758549892</v>
       </c>
       <c r="F23">
-        <v>11.11536131194822</v>
+        <v>11.08307226008111</v>
       </c>
       <c r="G23">
-        <v>0.0007582348097565852</v>
+        <v>0.0008087661784128436</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4825421382574717</v>
+        <v>0.4596634496752188</v>
       </c>
       <c r="K23">
-        <v>1.151682098299403</v>
+        <v>1.798034218802968</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.491865315491339</v>
+        <v>1.459011208526363</v>
       </c>
       <c r="C24">
-        <v>0.7869492336703559</v>
+        <v>0.1815128013586076</v>
       </c>
       <c r="D24">
-        <v>0.04818841825502318</v>
+        <v>0.07060472431788156</v>
       </c>
       <c r="E24">
-        <v>0.07738298104883157</v>
+        <v>0.07417379191911522</v>
       </c>
       <c r="F24">
-        <v>9.521523172223368</v>
+        <v>9.655371947086365</v>
       </c>
       <c r="G24">
-        <v>0.0007786087189663507</v>
+        <v>0.0008244737608188958</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.409969482843664</v>
+        <v>0.3953030833716724</v>
       </c>
       <c r="K24">
-        <v>0.9581827813794064</v>
+        <v>1.508976303226575</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.793839991419816</v>
+        <v>1.18212031040477</v>
       </c>
       <c r="C25">
-        <v>0.6222645708677419</v>
+        <v>0.1434487447753412</v>
       </c>
       <c r="D25">
-        <v>0.03724962407193999</v>
+        <v>0.05599920379471968</v>
       </c>
       <c r="E25">
-        <v>0.06379422509769839</v>
+        <v>0.06068831746683401</v>
       </c>
       <c r="F25">
-        <v>7.917564272012726</v>
+        <v>8.18368190881759</v>
       </c>
       <c r="G25">
-        <v>0.0008005591719289183</v>
+        <v>0.0008416356051944099</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3372811312407293</v>
+        <v>0.3295259852650361</v>
       </c>
       <c r="K25">
-        <v>0.7643046976631069</v>
+        <v>1.216896180822317</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.989464478743713</v>
+        <v>0.9490188993823665</v>
       </c>
       <c r="C2">
-        <v>0.1174836072830914</v>
+        <v>0.2281792464034282</v>
       </c>
       <c r="D2">
-        <v>0.04600953004044328</v>
+        <v>0.153374621639216</v>
       </c>
       <c r="E2">
-        <v>0.05155685387556375</v>
+        <v>0.154896520602378</v>
       </c>
       <c r="F2">
-        <v>7.142435250819716</v>
+        <v>1.229174986062134</v>
       </c>
       <c r="G2">
-        <v>0.0008545798084741896</v>
+        <v>0.8830150215512731</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.006276205506480448</v>
       </c>
       <c r="J2">
-        <v>0.2834189590930123</v>
+        <v>0.6288443504275136</v>
       </c>
       <c r="K2">
-        <v>1.014439103418084</v>
+        <v>0.5847937787893258</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1940331743374699</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.143535921241323</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8643095565141721</v>
+        <v>0.8249865529255942</v>
       </c>
       <c r="C3">
-        <v>0.1008638454370754</v>
+        <v>0.1971993111951633</v>
       </c>
       <c r="D3">
-        <v>0.03957688441197149</v>
+        <v>0.1345029402232711</v>
       </c>
       <c r="E3">
-        <v>0.04576424379231625</v>
+        <v>0.1375628712125732</v>
       </c>
       <c r="F3">
-        <v>6.456331548549883</v>
+        <v>1.172742168165939</v>
       </c>
       <c r="G3">
-        <v>0.0008635947620551283</v>
+        <v>0.8464148097519768</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.009241693472237689</v>
       </c>
       <c r="J3">
-        <v>0.2532838546753595</v>
+        <v>0.6182627477960665</v>
       </c>
       <c r="K3">
-        <v>0.8832893299348257</v>
+        <v>0.5765129428686109</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1741140577261717</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9932663430831496</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7896802145559434</v>
+        <v>0.7488191615433664</v>
       </c>
       <c r="C4">
-        <v>0.09105410156281835</v>
+        <v>0.1785944813040459</v>
       </c>
       <c r="D4">
-        <v>0.03575395605854936</v>
+        <v>0.123096804412441</v>
       </c>
       <c r="E4">
-        <v>0.04237393590380734</v>
+        <v>0.1271005314642828</v>
       </c>
       <c r="F4">
-        <v>6.042743797871452</v>
+        <v>1.139237452692583</v>
       </c>
       <c r="G4">
-        <v>0.0008692641283727946</v>
+        <v>0.8247284360900551</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01146920140071295</v>
       </c>
       <c r="J4">
-        <v>0.2352328685506677</v>
+        <v>0.6122609244355459</v>
       </c>
       <c r="K4">
-        <v>0.8052384548338409</v>
+        <v>0.5717544964059833</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1621086298373129</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9014409186692944</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7597651312285905</v>
+        <v>0.7174736313584162</v>
       </c>
       <c r="C5">
-        <v>0.08714426440825207</v>
+        <v>0.1715867770697344</v>
       </c>
       <c r="D5">
-        <v>0.03422262463853798</v>
+        <v>0.1186863915292946</v>
       </c>
       <c r="E5">
-        <v>0.04103034314985976</v>
+        <v>0.1229352827108912</v>
       </c>
       <c r="F5">
-        <v>5.875872473577942</v>
+        <v>1.124509807142566</v>
       </c>
       <c r="G5">
-        <v>0.000871610120729832</v>
+        <v>0.8147775533334709</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01256270001189153</v>
       </c>
       <c r="J5">
-        <v>0.2279777482088718</v>
+        <v>0.6092658365014074</v>
       </c>
       <c r="K5">
-        <v>0.7739863177758934</v>
+        <v>0.5689921143707686</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1572312492320194</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.8644807785831006</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7548261083759087</v>
+        <v>0.7119067994027262</v>
       </c>
       <c r="C6">
-        <v>0.08650001876041813</v>
+        <v>0.1710151325867031</v>
       </c>
       <c r="D6">
-        <v>0.03396980441583253</v>
+        <v>0.1181958971417458</v>
       </c>
       <c r="E6">
-        <v>0.04080942882070104</v>
+        <v>0.1223150283143539</v>
       </c>
       <c r="F6">
-        <v>5.848257161623394</v>
+        <v>1.120436979401767</v>
       </c>
       <c r="G6">
-        <v>0.0008720018800108195</v>
+        <v>0.8115506502198002</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01286517093010708</v>
       </c>
       <c r="J6">
-        <v>0.2267787739616693</v>
+        <v>0.6079594920870761</v>
       </c>
       <c r="K6">
-        <v>0.7688285180600758</v>
+        <v>0.5674386643557945</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1563790069852331</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.8587969517066085</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7892748328644075</v>
+        <v>0.7474058652498456</v>
       </c>
       <c r="C7">
-        <v>0.09100103149135919</v>
+        <v>0.1801030349781882</v>
       </c>
       <c r="D7">
-        <v>0.03573320321831375</v>
+        <v>0.1236915116877242</v>
       </c>
       <c r="E7">
-        <v>0.04235566677719405</v>
+        <v>0.1272325198676327</v>
       </c>
       <c r="F7">
-        <v>6.040486886104503</v>
+        <v>1.134549804557523</v>
       </c>
       <c r="G7">
-        <v>0.0008692956202106198</v>
+        <v>0.8202628747140892</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01177949699182346</v>
       </c>
       <c r="J7">
-        <v>0.2351346315180791</v>
+        <v>0.6099934153892121</v>
       </c>
       <c r="K7">
-        <v>0.8048148193160785</v>
+        <v>0.5687152819367931</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1619184117334314</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9021675956776676</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9458129923123977</v>
+        <v>0.9049179451370435</v>
       </c>
       <c r="C8">
-        <v>0.1116638329165625</v>
+        <v>0.2195406681986185</v>
       </c>
       <c r="D8">
-        <v>0.04376188888712207</v>
+        <v>0.1476978721838833</v>
       </c>
       <c r="E8">
-        <v>0.04952259622469768</v>
+        <v>0.1491296577855152</v>
       </c>
       <c r="F8">
-        <v>6.904106541440115</v>
+        <v>1.203534418302027</v>
       </c>
       <c r="G8">
-        <v>0.0008576615464542433</v>
+        <v>0.8644991882053148</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.00755947169818949</v>
       </c>
       <c r="J8">
-        <v>0.2729264205069484</v>
+        <v>0.6221558547019015</v>
       </c>
       <c r="K8">
-        <v>0.9686617160065509</v>
+        <v>0.577909708635147</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1869496110313662</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.093248489439816</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.273416325048942</v>
+        <v>1.215972616149003</v>
       </c>
       <c r="C9">
-        <v>0.1559049750779593</v>
+        <v>0.2977243759188184</v>
       </c>
       <c r="D9">
-        <v>0.06077994686611987</v>
+        <v>0.1951878300225189</v>
       </c>
       <c r="E9">
-        <v>0.06509203441333611</v>
+        <v>0.1933332791269606</v>
       </c>
       <c r="F9">
-        <v>8.671843133096701</v>
+        <v>1.356799451887326</v>
       </c>
       <c r="G9">
-        <v>0.0008358140971655682</v>
+        <v>0.9658941843312618</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.002301575770482955</v>
       </c>
       <c r="J9">
-        <v>0.3512726359301865</v>
+        <v>0.6541909142771942</v>
       </c>
       <c r="K9">
-        <v>1.313062093034461</v>
+        <v>0.6041092218245367</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2382674935216187</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.470098306160367</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.531507317225248</v>
+        <v>1.444908154027729</v>
       </c>
       <c r="C10">
-        <v>0.1916165644711327</v>
+        <v>0.358902560858553</v>
       </c>
       <c r="D10">
-        <v>0.07448334857946293</v>
+        <v>0.2316085246972079</v>
       </c>
       <c r="E10">
-        <v>0.07776402985538056</v>
+        <v>0.2271300776518856</v>
       </c>
       <c r="F10">
-        <v>10.03664223405377</v>
+        <v>1.474577980939983</v>
       </c>
       <c r="G10">
-        <v>0.0008201994523275735</v>
+        <v>1.043471945799865</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001013063788536606</v>
       </c>
       <c r="J10">
-        <v>0.4124421721868998</v>
+        <v>0.6796564146463453</v>
       </c>
       <c r="K10">
-        <v>1.585650571450543</v>
+        <v>0.6239669954912515</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2774621775326409</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.751517326770454</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.653962998937175</v>
+        <v>1.547699057694217</v>
       </c>
       <c r="C11">
-        <v>0.2088087067988056</v>
+        <v>0.3902305820722063</v>
       </c>
       <c r="D11">
-        <v>0.08108933741864632</v>
+        <v>0.2495868720386625</v>
       </c>
       <c r="E11">
-        <v>0.08387820962819603</v>
+        <v>0.2431402622440402</v>
       </c>
       <c r="F11">
-        <v>10.67728396665007</v>
+        <v>1.522770880482</v>
       </c>
       <c r="G11">
-        <v>0.0008131511989684631</v>
+        <v>1.073106836640576</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001432656612067262</v>
       </c>
       <c r="J11">
-        <v>0.441321504511734</v>
+        <v>0.688431066272841</v>
       </c>
       <c r="K11">
-        <v>1.715345749000164</v>
+        <v>0.6287193949933538</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.295497658114158</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.882733525057063</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.701183506315402</v>
+        <v>1.587602076403186</v>
       </c>
       <c r="C12">
-        <v>0.2154797851463996</v>
+        <v>0.4007870139471379</v>
       </c>
       <c r="D12">
-        <v>0.08365532590859459</v>
+        <v>0.2558648814825091</v>
       </c>
       <c r="E12">
-        <v>0.08625179103493963</v>
+        <v>0.2490910874233236</v>
       </c>
       <c r="F12">
-        <v>10.92324972779829</v>
+        <v>1.545213800197871</v>
       </c>
       <c r="G12">
-        <v>0.0008104862817613793</v>
+        <v>1.088291585628127</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001474537778290319</v>
       </c>
       <c r="J12">
-        <v>0.4524349137578838</v>
+        <v>0.6937769551431927</v>
       </c>
       <c r="K12">
-        <v>1.765417973689068</v>
+        <v>0.6331721197371039</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3025066684219695</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.931539627948609</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.690973799311081</v>
+        <v>1.579189201287306</v>
       </c>
       <c r="C13">
-        <v>0.2140354639106903</v>
+        <v>0.3982178136565722</v>
       </c>
       <c r="D13">
-        <v>0.08309963677940146</v>
+        <v>0.2543934029302761</v>
       </c>
       <c r="E13">
-        <v>0.08573786565697716</v>
+        <v>0.2477740143587113</v>
       </c>
       <c r="F13">
-        <v>10.87011764565466</v>
+        <v>1.541147884055519</v>
       </c>
       <c r="G13">
-        <v>0.0008110601030361628</v>
+        <v>1.085762988094771</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001416490011481031</v>
       </c>
       <c r="J13">
-        <v>0.4500330959034926</v>
+        <v>0.6930022418535344</v>
       </c>
       <c r="K13">
-        <v>1.754588882232468</v>
+        <v>0.6327242681842264</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3010167377043587</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.920802257025031</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.657830068819351</v>
+        <v>1.551058588058027</v>
       </c>
       <c r="C14">
-        <v>0.2093541630625708</v>
+        <v>0.3909733515687321</v>
       </c>
       <c r="D14">
-        <v>0.08129908292787746</v>
+        <v>0.250052603770996</v>
       </c>
       <c r="E14">
-        <v>0.08407226756977337</v>
+        <v>0.2436147207883863</v>
       </c>
       <c r="F14">
-        <v>10.6974489428228</v>
+        <v>1.524942952663963</v>
       </c>
       <c r="G14">
-        <v>0.0008129318960425864</v>
+        <v>1.074670874876716</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001414785629174631</v>
       </c>
       <c r="J14">
-        <v>0.442232092874093</v>
+        <v>0.6890307464556287</v>
       </c>
       <c r="K14">
-        <v>1.719445110113867</v>
+        <v>0.6293027264795796</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2960825316664284</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.886652577796724</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.637643132144092</v>
+        <v>1.533475500737268</v>
       </c>
       <c r="C15">
-        <v>0.2065084673412372</v>
+        <v>0.3871235442931891</v>
       </c>
       <c r="D15">
-        <v>0.08020493589932443</v>
+        <v>0.2476309457701547</v>
       </c>
       <c r="E15">
-        <v>0.08305988756349691</v>
+        <v>0.2411391044501983</v>
       </c>
       <c r="F15">
-        <v>10.59213986432599</v>
+        <v>1.513519566460062</v>
       </c>
       <c r="G15">
-        <v>0.0008140788358429046</v>
+        <v>1.066426724545209</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001519315076125238</v>
       </c>
       <c r="J15">
-        <v>0.4374776964342146</v>
+        <v>0.6858617693238216</v>
       </c>
       <c r="K15">
-        <v>1.698048023014422</v>
+        <v>0.6262049879594542</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2930245908892601</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.866188531802607</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.5236162745135</v>
+        <v>1.435164455002507</v>
       </c>
       <c r="C16">
-        <v>0.1905140902751157</v>
+        <v>0.3616623704805306</v>
       </c>
       <c r="D16">
-        <v>0.0740600192337908</v>
+        <v>0.2323780210788016</v>
       </c>
       <c r="E16">
-        <v>0.07737214627449518</v>
+        <v>0.2266391912318042</v>
       </c>
       <c r="F16">
-        <v>9.995216050329617</v>
+        <v>1.458493689731924</v>
       </c>
       <c r="G16">
-        <v>0.0008206608649252571</v>
+        <v>1.029076423318557</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001738589700288173</v>
       </c>
       <c r="J16">
-        <v>0.410578169207966</v>
+        <v>0.6727448969806744</v>
       </c>
       <c r="K16">
-        <v>1.577300820337342</v>
+        <v>0.6151007279470662</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2759182862800884</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.746566460265825</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.455039816305572</v>
+        <v>1.374975642635491</v>
       </c>
       <c r="C17">
-        <v>0.1809609261679981</v>
+        <v>0.3462327850126883</v>
       </c>
       <c r="D17">
-        <v>0.07039293020513782</v>
+        <v>0.2230963317942098</v>
       </c>
       <c r="E17">
-        <v>0.07397777825237029</v>
+        <v>0.2178290043785083</v>
       </c>
       <c r="F17">
-        <v>9.634440688747105</v>
+        <v>1.425308409477893</v>
       </c>
       <c r="G17">
-        <v>0.0008247102550285405</v>
+        <v>1.006588069771794</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002043106495071889</v>
       </c>
       <c r="J17">
-        <v>0.3943632559500969</v>
+        <v>0.664927870179838</v>
       </c>
       <c r="K17">
-        <v>1.504778379290087</v>
+        <v>0.608470428419885</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2655379601553705</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.673484188805247</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.416063327350059</v>
+        <v>1.341309515008192</v>
       </c>
       <c r="C18">
-        <v>0.1755536329250873</v>
+        <v>0.335970573431382</v>
       </c>
       <c r="D18">
-        <v>0.06831801476000265</v>
+        <v>0.2171968342374129</v>
       </c>
       <c r="E18">
-        <v>0.07205779303264848</v>
+        <v>0.2126249532327975</v>
       </c>
       <c r="F18">
-        <v>9.428759475536083</v>
+        <v>1.410341135442238</v>
       </c>
       <c r="G18">
-        <v>0.0008270447827941307</v>
+        <v>0.9975713835162452</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002012452087393868</v>
       </c>
       <c r="J18">
-        <v>0.3851342221067995</v>
+        <v>0.6624331421176066</v>
       </c>
       <c r="K18">
-        <v>1.463591724246157</v>
+        <v>0.6073045294392188</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2597198007237864</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.630461155796667</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.402943273770916</v>
+        <v>1.329212675769867</v>
       </c>
       <c r="C19">
-        <v>0.1737371423874521</v>
+        <v>0.3336274277706082</v>
       </c>
       <c r="D19">
-        <v>0.06762106742813501</v>
+        <v>0.215656624552679</v>
       </c>
       <c r="E19">
-        <v>0.07141305291677824</v>
+        <v>0.2109961090043555</v>
       </c>
       <c r="F19">
-        <v>9.359418398665412</v>
+        <v>1.402282777515225</v>
       </c>
       <c r="G19">
-        <v>0.0008278362526752046</v>
+        <v>0.9916347444161175</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002213653088658063</v>
       </c>
       <c r="J19">
-        <v>0.3820254169804826</v>
+        <v>0.6601204546873163</v>
       </c>
       <c r="K19">
-        <v>1.449733067369294</v>
+        <v>0.6049265315193608</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2576694573537139</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.616752296616738</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.462290741254947</v>
+        <v>1.381450408923598</v>
       </c>
       <c r="C20">
-        <v>0.1819686611085984</v>
+        <v>0.3477541742455799</v>
       </c>
       <c r="D20">
-        <v>0.07077967443816391</v>
+        <v>0.2240354933700814</v>
       </c>
       <c r="E20">
-        <v>0.0743357106094038</v>
+        <v>0.2187507136804712</v>
       </c>
       <c r="F20">
-        <v>9.67265317052329</v>
+        <v>1.429127645244208</v>
       </c>
       <c r="G20">
-        <v>0.0008242786548287</v>
+        <v>1.009262147719923</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001983433888181452</v>
       </c>
       <c r="J20">
-        <v>0.3960791084851252</v>
+        <v>0.6659021278460528</v>
       </c>
       <c r="K20">
-        <v>1.512443088557205</v>
+        <v>0.6093721342727534</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2666476831954583</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.681167487445236</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.667541066667837</v>
+        <v>1.558286943932359</v>
       </c>
       <c r="C21">
-        <v>0.2107245952425387</v>
+        <v>0.3947248212725469</v>
       </c>
       <c r="D21">
-        <v>0.08182610512468358</v>
+        <v>0.2519833210676694</v>
       </c>
       <c r="E21">
-        <v>0.08455984279898843</v>
+        <v>0.2450203517507674</v>
       </c>
       <c r="F21">
-        <v>10.74806996239238</v>
+        <v>1.525313292290278</v>
       </c>
       <c r="G21">
-        <v>0.0008123820266300858</v>
+        <v>1.0737097826716</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001675913038893917</v>
       </c>
       <c r="J21">
-        <v>0.4445183949685543</v>
+        <v>0.6880525492937721</v>
       </c>
       <c r="K21">
-        <v>1.729740421099649</v>
+        <v>0.6274205454870909</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2974027718411065</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.897895257695836</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.806704739515084</v>
+        <v>1.67563160702278</v>
       </c>
       <c r="C22">
-        <v>0.2304698234234479</v>
+        <v>0.4240299768349871</v>
       </c>
       <c r="D22">
-        <v>0.08942751973739149</v>
+        <v>0.2696792932283358</v>
       </c>
       <c r="E22">
-        <v>0.09158619920697575</v>
+        <v>0.2622532091442906</v>
       </c>
       <c r="F22">
-        <v>11.47085116928815</v>
+        <v>1.595732710645791</v>
       </c>
       <c r="G22">
-        <v>0.0008046286426830458</v>
+        <v>1.122666088743856</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001721188071918789</v>
       </c>
       <c r="J22">
-        <v>0.4772254180515318</v>
+        <v>0.706042981288789</v>
       </c>
       <c r="K22">
-        <v>1.877430663638563</v>
+        <v>0.6435099542280227</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3180663061107794</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.039089396806673</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.731925450317078</v>
+        <v>1.61420197309684</v>
       </c>
       <c r="C23">
-        <v>0.219835165237896</v>
+        <v>0.4063633789021424</v>
       </c>
       <c r="D23">
-        <v>0.0853315055160877</v>
+        <v>0.2594170958003588</v>
       </c>
       <c r="E23">
-        <v>0.08780162758549892</v>
+        <v>0.2528031218062239</v>
       </c>
       <c r="F23">
-        <v>11.08307226008111</v>
+        <v>1.56324009152948</v>
       </c>
       <c r="G23">
-        <v>0.0008087661784128436</v>
+        <v>1.101476223846134</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001342585514406025</v>
       </c>
       <c r="J23">
-        <v>0.4596634496752188</v>
+        <v>0.6989475365447788</v>
       </c>
       <c r="K23">
-        <v>1.798034218802968</v>
+        <v>0.6383437083413952</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3071520648740744</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.962154981577896</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.459011208526363</v>
+        <v>1.380460209212146</v>
       </c>
       <c r="C24">
-        <v>0.1815128013586076</v>
+        <v>0.3439943224620663</v>
       </c>
       <c r="D24">
-        <v>0.07060472431788156</v>
+        <v>0.2223687740345923</v>
       </c>
       <c r="E24">
-        <v>0.07417379191911522</v>
+        <v>0.2179822451896101</v>
       </c>
       <c r="F24">
-        <v>9.655371947086365</v>
+        <v>1.435706202285104</v>
       </c>
       <c r="G24">
-        <v>0.0008244737608188958</v>
+        <v>1.016043600427466</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001490668169630283</v>
       </c>
       <c r="J24">
-        <v>0.3953030833716724</v>
+        <v>0.6695302993774845</v>
       </c>
       <c r="K24">
-        <v>1.508976303226575</v>
+        <v>0.61444445973396</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.266384960056854</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.675386403741356</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.18212031040477</v>
+        <v>1.129862308954074</v>
       </c>
       <c r="C25">
-        <v>0.1434487447753412</v>
+        <v>0.2790613650354885</v>
       </c>
       <c r="D25">
-        <v>0.05599920379471968</v>
+        <v>0.1833451672847985</v>
       </c>
       <c r="E25">
-        <v>0.06068831746683401</v>
+        <v>0.181520061753325</v>
       </c>
       <c r="F25">
-        <v>8.18368190881759</v>
+        <v>1.306050985010998</v>
       </c>
       <c r="G25">
-        <v>0.0008416356051944099</v>
+        <v>0.9298306948319635</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003788900734249978</v>
       </c>
       <c r="J25">
-        <v>0.3295259852650361</v>
+        <v>0.6410494443705517</v>
       </c>
       <c r="K25">
-        <v>1.216896180822317</v>
+        <v>0.5913173800730078</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2239073087556562</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.369792538512939</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_46/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_46/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9490188993823665</v>
+        <v>0.9312574275221266</v>
       </c>
       <c r="C2">
-        <v>0.2281792464034282</v>
+        <v>0.2697180519072617</v>
       </c>
       <c r="D2">
-        <v>0.153374621639216</v>
+        <v>0.1725398693021987</v>
       </c>
       <c r="E2">
-        <v>0.154896520602378</v>
+        <v>0.1606901984727358</v>
       </c>
       <c r="F2">
-        <v>1.229174986062134</v>
+        <v>1.08660615930178</v>
       </c>
       <c r="G2">
-        <v>0.8830150215512731</v>
+        <v>0.7346414954615028</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006276205506480448</v>
+        <v>0.004124760690455531</v>
       </c>
       <c r="J2">
-        <v>0.6288443504275136</v>
+        <v>0.5708306771368399</v>
       </c>
       <c r="K2">
-        <v>0.5847937787893258</v>
+        <v>0.4792457329200666</v>
       </c>
       <c r="L2">
-        <v>0.1940331743374699</v>
+        <v>0.2162625249213441</v>
       </c>
       <c r="M2">
-        <v>1.143535921241323</v>
+        <v>0.1470473460104493</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.190772716885391</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.183094534987362</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8249865529255942</v>
+        <v>0.8119889427632643</v>
       </c>
       <c r="C3">
-        <v>0.1971993111951633</v>
+        <v>0.2310513704444332</v>
       </c>
       <c r="D3">
-        <v>0.1345029402232711</v>
+        <v>0.1505585912416052</v>
       </c>
       <c r="E3">
-        <v>0.1375628712125732</v>
+        <v>0.1425021153548691</v>
       </c>
       <c r="F3">
-        <v>1.172742168165939</v>
+        <v>1.045600623868502</v>
       </c>
       <c r="G3">
-        <v>0.8464148097519768</v>
+        <v>0.7157750669731655</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.009241693472237689</v>
+        <v>0.006136924356498152</v>
       </c>
       <c r="J3">
-        <v>0.6182627477960665</v>
+        <v>0.5615158381114753</v>
       </c>
       <c r="K3">
-        <v>0.5765129428686109</v>
+        <v>0.479505596694267</v>
       </c>
       <c r="L3">
-        <v>0.1741140577261717</v>
+        <v>0.2204493132411791</v>
       </c>
       <c r="M3">
-        <v>0.9932663430831496</v>
+        <v>0.1443055098883228</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.171348854321522</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.026710612620207</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7488191615433664</v>
+        <v>0.7385885868969524</v>
       </c>
       <c r="C4">
-        <v>0.1785944813040459</v>
+        <v>0.2078703542715061</v>
       </c>
       <c r="D4">
-        <v>0.123096804412441</v>
+        <v>0.1372873751771237</v>
       </c>
       <c r="E4">
-        <v>0.1271005314642828</v>
+        <v>0.1315206076436262</v>
       </c>
       <c r="F4">
-        <v>1.139237452692583</v>
+        <v>1.021258500222793</v>
       </c>
       <c r="G4">
-        <v>0.8247284360900551</v>
+        <v>0.7049624233092118</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01146920140071295</v>
+        <v>0.007684653441380362</v>
       </c>
       <c r="J4">
-        <v>0.6122609244355459</v>
+        <v>0.5558809087842178</v>
       </c>
       <c r="K4">
-        <v>0.5717544964059833</v>
+        <v>0.4798426306674948</v>
       </c>
       <c r="L4">
-        <v>0.1621086298373129</v>
+        <v>0.222974442726013</v>
       </c>
       <c r="M4">
-        <v>0.9014409186692944</v>
+        <v>0.1433307871065406</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1596280584884084</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9310681765271909</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7174736313584162</v>
+        <v>0.7083570680174773</v>
       </c>
       <c r="C5">
-        <v>0.1715867770697344</v>
+        <v>0.1990390613774764</v>
       </c>
       <c r="D5">
-        <v>0.1186863915292946</v>
+        <v>0.1321220365643256</v>
       </c>
       <c r="E5">
-        <v>0.1229352827108912</v>
+        <v>0.1271417144722307</v>
       </c>
       <c r="F5">
-        <v>1.124509807142566</v>
+        <v>1.010371096646814</v>
       </c>
       <c r="G5">
-        <v>0.8147775533334709</v>
+        <v>0.6996507510005756</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01256270001189153</v>
+        <v>0.008488198849009976</v>
       </c>
       <c r="J5">
-        <v>0.6092658365014074</v>
+        <v>0.5530212505342433</v>
       </c>
       <c r="K5">
-        <v>0.5689921143707686</v>
+        <v>0.4792937936107684</v>
       </c>
       <c r="L5">
-        <v>0.1572312492320194</v>
+        <v>0.2236552357443635</v>
       </c>
       <c r="M5">
-        <v>0.8644807785831006</v>
+        <v>0.1429000391123232</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1548654016347442</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8925157505128425</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7119067994027262</v>
+        <v>0.7030018521432737</v>
       </c>
       <c r="C6">
-        <v>0.1710151325867031</v>
+        <v>0.1981739723030813</v>
       </c>
       <c r="D6">
-        <v>0.1181958971417458</v>
+        <v>0.1314996654106295</v>
       </c>
       <c r="E6">
-        <v>0.1223150283143539</v>
+        <v>0.1264816504109412</v>
       </c>
       <c r="F6">
-        <v>1.120436979401767</v>
+        <v>1.00715285439648</v>
       </c>
       <c r="G6">
-        <v>0.8115506502198002</v>
+        <v>0.6974532995171501</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01286517093010708</v>
+        <v>0.008754478177879221</v>
       </c>
       <c r="J6">
-        <v>0.6079594920870761</v>
+        <v>0.5518361240905421</v>
       </c>
       <c r="K6">
-        <v>0.5674386643557945</v>
+        <v>0.4783176503009123</v>
       </c>
       <c r="L6">
-        <v>0.1563790069852331</v>
+        <v>0.22335786248237</v>
       </c>
       <c r="M6">
-        <v>0.8587969517066085</v>
+        <v>0.1425831161400133</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1540358597613434</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8865376224009651</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7474058652498456</v>
+        <v>0.7374927158321611</v>
       </c>
       <c r="C7">
-        <v>0.1801030349781882</v>
+        <v>0.20890778711032</v>
       </c>
       <c r="D7">
-        <v>0.1236915116877242</v>
+        <v>0.1382372045620883</v>
       </c>
       <c r="E7">
-        <v>0.1272325198676327</v>
+        <v>0.1317436792834066</v>
       </c>
       <c r="F7">
-        <v>1.134549804557523</v>
+        <v>1.014928298599749</v>
       </c>
       <c r="G7">
-        <v>0.8202628747140892</v>
+        <v>0.7038347659310489</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01177949699182346</v>
+        <v>0.008035370949382781</v>
       </c>
       <c r="J7">
-        <v>0.6099934153892121</v>
+        <v>0.5478074328104441</v>
       </c>
       <c r="K7">
-        <v>0.5687152819367931</v>
+        <v>0.4763320701648937</v>
       </c>
       <c r="L7">
-        <v>0.1619184117334314</v>
+        <v>0.221398328810924</v>
       </c>
       <c r="M7">
-        <v>0.9021675956776676</v>
+        <v>0.1422815429450406</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1593815985082543</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.931326141335262</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9049179451370435</v>
+        <v>0.8896872119585737</v>
       </c>
       <c r="C8">
-        <v>0.2195406681986185</v>
+        <v>0.2568533325794817</v>
       </c>
       <c r="D8">
-        <v>0.1476978721838833</v>
+        <v>0.1670498152126498</v>
       </c>
       <c r="E8">
-        <v>0.1491296577855152</v>
+        <v>0.1549652220701319</v>
       </c>
       <c r="F8">
-        <v>1.203534418302027</v>
+        <v>1.0595874529767</v>
       </c>
       <c r="G8">
-        <v>0.8644991882053148</v>
+        <v>0.7318060401456421</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.00755947169818949</v>
+        <v>0.005168190494027947</v>
       </c>
       <c r="J8">
-        <v>0.6221558547019015</v>
+        <v>0.5451693417616355</v>
       </c>
       <c r="K8">
-        <v>0.577909708635147</v>
+        <v>0.4726144820843494</v>
       </c>
       <c r="L8">
-        <v>0.1869496110313662</v>
+        <v>0.2148906564867517</v>
       </c>
       <c r="M8">
-        <v>1.093248489439816</v>
+        <v>0.1437620099058208</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1836488852670968</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.129363769339619</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.215972616149003</v>
+        <v>1.187967412191455</v>
       </c>
       <c r="C9">
-        <v>0.2977243759188184</v>
+        <v>0.3545298993051347</v>
       </c>
       <c r="D9">
-        <v>0.1951878300225189</v>
+        <v>0.2229505338990805</v>
       </c>
       <c r="E9">
-        <v>0.1933332791269606</v>
+        <v>0.2014356296508808</v>
       </c>
       <c r="F9">
-        <v>1.356799451887326</v>
+        <v>1.169718953122413</v>
       </c>
       <c r="G9">
-        <v>0.9658941843312618</v>
+        <v>0.7904962474166979</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.002301575770482955</v>
+        <v>0.001658407676610629</v>
       </c>
       <c r="J9">
-        <v>0.6541909142771942</v>
+        <v>0.5658451403527778</v>
       </c>
       <c r="K9">
-        <v>0.6041092218245367</v>
+        <v>0.4750618460064544</v>
       </c>
       <c r="L9">
-        <v>0.2382674935216187</v>
+        <v>0.2053293447294422</v>
       </c>
       <c r="M9">
-        <v>1.470098306160367</v>
+        <v>0.1549979355813882</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2335208961873434</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.520688437248111</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.444908154027729</v>
+        <v>1.407851544573049</v>
       </c>
       <c r="C10">
-        <v>0.358902560858553</v>
+        <v>0.4278771405986674</v>
       </c>
       <c r="D10">
-        <v>0.2316085246972079</v>
+        <v>0.2681188601134181</v>
       </c>
       <c r="E10">
-        <v>0.2271300776518856</v>
+        <v>0.2375287963650052</v>
       </c>
       <c r="F10">
-        <v>1.474577980939983</v>
+        <v>1.241050447047328</v>
       </c>
       <c r="G10">
-        <v>1.043471945799865</v>
+        <v>0.852548626465321</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001013063788536606</v>
+        <v>0.001097453450845443</v>
       </c>
       <c r="J10">
-        <v>0.6796564146463453</v>
+        <v>0.5474625850711305</v>
       </c>
       <c r="K10">
-        <v>0.6239669954912515</v>
+        <v>0.4710077050370529</v>
       </c>
       <c r="L10">
-        <v>0.2774621775326409</v>
+        <v>0.1956454021650167</v>
       </c>
       <c r="M10">
-        <v>1.751517326770454</v>
+        <v>0.1641196727693348</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2710994721014117</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.809792372615561</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.547699057694217</v>
+        <v>1.50878528189395</v>
       </c>
       <c r="C11">
-        <v>0.3902305820722063</v>
+        <v>0.4597299254853624</v>
       </c>
       <c r="D11">
-        <v>0.2495868720386625</v>
+        <v>0.2943534607518643</v>
       </c>
       <c r="E11">
-        <v>0.2431402622440402</v>
+        <v>0.2556877065960634</v>
       </c>
       <c r="F11">
-        <v>1.522770880482</v>
+        <v>1.245734453199859</v>
       </c>
       <c r="G11">
-        <v>1.073106836640576</v>
+        <v>0.9046644244217958</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001432656612067262</v>
+        <v>0.001768354231940883</v>
       </c>
       <c r="J11">
-        <v>0.688431066272841</v>
+        <v>0.483422817258699</v>
       </c>
       <c r="K11">
-        <v>0.6287193949933538</v>
+        <v>0.4556951064507047</v>
       </c>
       <c r="L11">
-        <v>0.295497658114158</v>
+        <v>0.1865986582434864</v>
       </c>
       <c r="M11">
-        <v>1.882733525057063</v>
+        <v>0.1633531593673965</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2876343140635527</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.940053858643807</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.587602076403186</v>
+        <v>1.548174814742197</v>
       </c>
       <c r="C12">
-        <v>0.4007870139471379</v>
+        <v>0.4697836740513139</v>
       </c>
       <c r="D12">
-        <v>0.2558648814825091</v>
+        <v>0.3043457637764391</v>
       </c>
       <c r="E12">
-        <v>0.2490910874233236</v>
+        <v>0.2626103773809731</v>
       </c>
       <c r="F12">
-        <v>1.545213800197871</v>
+        <v>1.248059859648365</v>
       </c>
       <c r="G12">
-        <v>1.088291585628127</v>
+        <v>0.9317598661862831</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001474537778290319</v>
+        <v>0.0018342138882117</v>
       </c>
       <c r="J12">
-        <v>0.6937769551431927</v>
+        <v>0.4561407699631133</v>
       </c>
       <c r="K12">
-        <v>0.6331721197371039</v>
+        <v>0.4506367902426618</v>
       </c>
       <c r="L12">
-        <v>0.3025066684219695</v>
+        <v>0.1834924127180635</v>
       </c>
       <c r="M12">
-        <v>1.931539627948609</v>
+        <v>0.1633826107288563</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2939594462943518</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.987985911951483</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.579189201287306</v>
+        <v>1.539842572463584</v>
       </c>
       <c r="C13">
-        <v>0.3982178136565722</v>
+        <v>0.4673465079361847</v>
       </c>
       <c r="D13">
-        <v>0.2543934029302761</v>
+        <v>0.3020470425960156</v>
       </c>
       <c r="E13">
-        <v>0.2477740143587113</v>
+        <v>0.2610790266038805</v>
       </c>
       <c r="F13">
-        <v>1.541147884055519</v>
+        <v>1.248316703490289</v>
       </c>
       <c r="G13">
-        <v>1.085762988094771</v>
+        <v>0.9263590997866515</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001416490011481031</v>
+        <v>0.001763270692906715</v>
       </c>
       <c r="J13">
-        <v>0.6930022418535344</v>
+        <v>0.4624201894155249</v>
       </c>
       <c r="K13">
-        <v>0.6327242681842264</v>
+        <v>0.4521500703755592</v>
       </c>
       <c r="L13">
-        <v>0.3010167377043587</v>
+        <v>0.1843028595953449</v>
       </c>
       <c r="M13">
-        <v>1.920802257025031</v>
+        <v>0.163550021274169</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.2926193602193763</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.977476130367165</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.551058588058027</v>
+        <v>1.512089591442134</v>
       </c>
       <c r="C14">
-        <v>0.3909733515687321</v>
+        <v>0.460441916862095</v>
       </c>
       <c r="D14">
-        <v>0.250052603770996</v>
+        <v>0.2951127342182787</v>
       </c>
       <c r="E14">
-        <v>0.2436147207883863</v>
+        <v>0.2562398650250799</v>
       </c>
       <c r="F14">
-        <v>1.524942952663963</v>
+        <v>1.246251908918907</v>
       </c>
       <c r="G14">
-        <v>1.074670874876716</v>
+        <v>0.9070724266337749</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001414785629174631</v>
+        <v>0.001749173162334472</v>
       </c>
       <c r="J14">
-        <v>0.6890307464556287</v>
+        <v>0.4813625472160226</v>
       </c>
       <c r="K14">
-        <v>0.6293027264795796</v>
+        <v>0.4554617389315041</v>
       </c>
       <c r="L14">
-        <v>0.2960825316664284</v>
+        <v>0.1864045494213649</v>
       </c>
       <c r="M14">
-        <v>1.886652577796724</v>
+        <v>0.1634299789120774</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.2881641314954777</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.943918317053317</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.533475500737268</v>
+        <v>1.494808175205605</v>
       </c>
       <c r="C15">
-        <v>0.3871235442931891</v>
+        <v>0.4567273784975043</v>
       </c>
       <c r="D15">
-        <v>0.2476309457701547</v>
+        <v>0.2911795928828553</v>
       </c>
       <c r="E15">
-        <v>0.2411391044501983</v>
+        <v>0.2533637967753393</v>
       </c>
       <c r="F15">
-        <v>1.513519566460062</v>
+        <v>1.24336986183306</v>
       </c>
       <c r="G15">
-        <v>1.066426724545209</v>
+        <v>0.8945992415367812</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001519315076125238</v>
+        <v>0.001860611078152274</v>
       </c>
       <c r="J15">
-        <v>0.6858617693238216</v>
+        <v>0.4919318094902394</v>
       </c>
       <c r="K15">
-        <v>0.6262049879594542</v>
+        <v>0.4565938287392655</v>
       </c>
       <c r="L15">
-        <v>0.2930245908892601</v>
+        <v>0.1873903193199347</v>
       </c>
       <c r="M15">
-        <v>1.866188531802607</v>
+        <v>0.1629945474124597</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.28538999782144</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.923714920354314</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.435164455002507</v>
+        <v>1.398546010275879</v>
       </c>
       <c r="C16">
-        <v>0.3616623704805306</v>
+        <v>0.4306562331906036</v>
       </c>
       <c r="D16">
-        <v>0.2323780210788016</v>
+        <v>0.2684046632111574</v>
       </c>
       <c r="E16">
-        <v>0.2266391912318042</v>
+        <v>0.236884301663828</v>
       </c>
       <c r="F16">
-        <v>1.458493689731924</v>
+        <v>1.229575249211592</v>
       </c>
       <c r="G16">
-        <v>1.029076423318557</v>
+        <v>0.8393959943897187</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001738589700288173</v>
+        <v>0.001944362675530442</v>
       </c>
       <c r="J16">
-        <v>0.6727448969806744</v>
+        <v>0.5460551804426643</v>
       </c>
       <c r="K16">
-        <v>0.6151007279470662</v>
+        <v>0.4654264607166496</v>
       </c>
       <c r="L16">
-        <v>0.2759182862800884</v>
+        <v>0.1939163080894701</v>
       </c>
       <c r="M16">
-        <v>1.746566460265825</v>
+        <v>0.1615520510757769</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.2696754320402874</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.804613780105569</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.374975642635491</v>
+        <v>1.340064028748913</v>
       </c>
       <c r="C17">
-        <v>0.3462327850126883</v>
+        <v>0.4137376633560166</v>
       </c>
       <c r="D17">
-        <v>0.2230963317942098</v>
+        <v>0.2554643693162717</v>
       </c>
       <c r="E17">
-        <v>0.2178290043785083</v>
+        <v>0.2271070060777518</v>
       </c>
       <c r="F17">
-        <v>1.425308409477893</v>
+        <v>1.216525600832952</v>
       </c>
       <c r="G17">
-        <v>1.006588069771794</v>
+        <v>0.8123963454839327</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002043106495071889</v>
+        <v>0.002118990173225477</v>
       </c>
       <c r="J17">
-        <v>0.664927870179838</v>
+        <v>0.5691270945609688</v>
       </c>
       <c r="K17">
-        <v>0.608470428419885</v>
+        <v>0.4687757415320348</v>
       </c>
       <c r="L17">
-        <v>0.2655379601553705</v>
+        <v>0.1972380056186367</v>
       </c>
       <c r="M17">
-        <v>1.673484188805247</v>
+        <v>0.1599394927246607</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.2599730041564356</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.730883681742625</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.341309515008192</v>
+        <v>1.307451283166671</v>
       </c>
       <c r="C18">
-        <v>0.335970573431382</v>
+        <v>0.4021828325026036</v>
       </c>
       <c r="D18">
-        <v>0.2171968342374129</v>
+        <v>0.247799634618886</v>
       </c>
       <c r="E18">
-        <v>0.2126249532327975</v>
+        <v>0.2214429217800955</v>
       </c>
       <c r="F18">
-        <v>1.410341135442238</v>
+        <v>1.210690397970836</v>
       </c>
       <c r="G18">
-        <v>0.9975713835162452</v>
+        <v>0.8022475417548378</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.002012452087393868</v>
+        <v>0.001949075654132493</v>
       </c>
       <c r="J18">
-        <v>0.6624331421176066</v>
+        <v>0.5798275904347747</v>
       </c>
       <c r="K18">
-        <v>0.6073045294392188</v>
+        <v>0.4719265946629676</v>
       </c>
       <c r="L18">
-        <v>0.2597198007237864</v>
+        <v>0.1996042037905426</v>
       </c>
       <c r="M18">
-        <v>1.630461155796667</v>
+        <v>0.1595303530452696</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.25447305041574</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.68721607865308</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.329212675769867</v>
+        <v>1.295801253863459</v>
       </c>
       <c r="C19">
-        <v>0.3336274277706082</v>
+        <v>0.3993728534349259</v>
       </c>
       <c r="D19">
-        <v>0.215656624552679</v>
+        <v>0.2457082828125721</v>
       </c>
       <c r="E19">
-        <v>0.2109961090043555</v>
+        <v>0.219664673927582</v>
       </c>
       <c r="F19">
-        <v>1.402282777515225</v>
+        <v>1.205897739207288</v>
       </c>
       <c r="G19">
-        <v>0.9916347444161175</v>
+        <v>0.7968158314624816</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.002213653088658063</v>
+        <v>0.002138225884497302</v>
       </c>
       <c r="J19">
-        <v>0.6601204546873163</v>
+        <v>0.58150655875815</v>
       </c>
       <c r="K19">
-        <v>0.6049265315193608</v>
+        <v>0.4713468799610894</v>
       </c>
       <c r="L19">
-        <v>0.2576694573537139</v>
+        <v>0.1998083911254973</v>
       </c>
       <c r="M19">
-        <v>1.616752296616738</v>
+        <v>0.1587602430486257</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2525284609750145</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.673183490150763</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.381450408923598</v>
+        <v>1.346334230716934</v>
       </c>
       <c r="C20">
-        <v>0.3477541742455799</v>
+        <v>0.415454842173915</v>
       </c>
       <c r="D20">
-        <v>0.2240354933700814</v>
+        <v>0.2567592033017121</v>
       </c>
       <c r="E20">
-        <v>0.2187507136804712</v>
+        <v>0.2281234648821311</v>
       </c>
       <c r="F20">
-        <v>1.429127645244208</v>
+        <v>1.21834258939036</v>
       </c>
       <c r="G20">
-        <v>1.009262147719923</v>
+        <v>0.8152692229578378</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001983433888181452</v>
+        <v>0.002070780729160226</v>
       </c>
       <c r="J20">
-        <v>0.6659021278460528</v>
+        <v>0.5672139029686178</v>
       </c>
       <c r="K20">
-        <v>0.6093721342727534</v>
+        <v>0.4686505083536616</v>
       </c>
       <c r="L20">
-        <v>0.2666476831954583</v>
+        <v>0.1969664141010909</v>
       </c>
       <c r="M20">
-        <v>1.681167487445236</v>
+        <v>0.1601974850434225</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.261016133556879</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.738676263924447</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.558286943932359</v>
+        <v>1.520136446915132</v>
       </c>
       <c r="C21">
-        <v>0.3947248212725469</v>
+        <v>0.462304692356895</v>
       </c>
       <c r="D21">
-        <v>0.2519833210676694</v>
+        <v>0.2992900088349302</v>
       </c>
       <c r="E21">
-        <v>0.2450203517507674</v>
+        <v>0.2582286443155226</v>
       </c>
       <c r="F21">
-        <v>1.525313292290278</v>
+        <v>1.235220808177885</v>
       </c>
       <c r="G21">
-        <v>1.0737097826716</v>
+        <v>0.9192193601748926</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001675913038893917</v>
+        <v>0.002066467827147811</v>
       </c>
       <c r="J21">
-        <v>0.6880525492937721</v>
+        <v>0.4570400464353099</v>
       </c>
       <c r="K21">
-        <v>0.6274205454870909</v>
+        <v>0.448846824312767</v>
       </c>
       <c r="L21">
-        <v>0.2974027718411065</v>
+        <v>0.1838589781360902</v>
       </c>
       <c r="M21">
-        <v>1.897895257695836</v>
+        <v>0.161147506851318</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2890969461147677</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.953479570831917</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.67563160702278</v>
+        <v>1.635594395998623</v>
       </c>
       <c r="C22">
-        <v>0.4240299768349871</v>
+        <v>0.4906831573385091</v>
       </c>
       <c r="D22">
-        <v>0.2696792932283358</v>
+        <v>0.3274587916254177</v>
       </c>
       <c r="E22">
-        <v>0.2622532091442906</v>
+        <v>0.278195449456291</v>
       </c>
       <c r="F22">
-        <v>1.595732710645791</v>
+        <v>1.248707620939342</v>
       </c>
       <c r="G22">
-        <v>1.122666088743856</v>
+        <v>1.000410437225014</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001721188071918789</v>
+        <v>0.002067146792535723</v>
       </c>
       <c r="J22">
-        <v>0.706042981288789</v>
+        <v>0.3912913808906211</v>
       </c>
       <c r="K22">
-        <v>0.6435099542280227</v>
+        <v>0.4376738494815839</v>
       </c>
       <c r="L22">
-        <v>0.3180663061107794</v>
+        <v>0.1761615269170242</v>
       </c>
       <c r="M22">
-        <v>2.039089396806673</v>
+        <v>0.1627141606757263</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3078142778567923</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.092535836438486</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.61420197309684</v>
+        <v>1.574447200156868</v>
       </c>
       <c r="C23">
-        <v>0.4063633789021424</v>
+        <v>0.474822618617452</v>
       </c>
       <c r="D23">
-        <v>0.2594170958003588</v>
+        <v>0.3104639038950978</v>
       </c>
       <c r="E23">
-        <v>0.2528031218062239</v>
+        <v>0.2670010800794671</v>
       </c>
       <c r="F23">
-        <v>1.56324009152948</v>
+        <v>1.251595053114187</v>
       </c>
       <c r="G23">
-        <v>1.101476223846134</v>
+        <v>0.9533721946074252</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001342585514406025</v>
+        <v>0.001669646744911546</v>
       </c>
       <c r="J23">
-        <v>0.6989475365447788</v>
+        <v>0.4386359378594875</v>
       </c>
       <c r="K23">
-        <v>0.6383437083413952</v>
+        <v>0.4486655740250782</v>
       </c>
       <c r="L23">
-        <v>0.3071520648740744</v>
+        <v>0.1819392858513922</v>
       </c>
       <c r="M23">
-        <v>1.962154981577896</v>
+        <v>0.1639466277118977</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2981229431493801</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.017928704350794</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.380460209212146</v>
+        <v>1.34525822850361</v>
       </c>
       <c r="C24">
-        <v>0.3439943224620663</v>
+        <v>0.4115107847853778</v>
       </c>
       <c r="D24">
-        <v>0.2223687740345923</v>
+        <v>0.2549499656725942</v>
       </c>
       <c r="E24">
-        <v>0.2179822451896101</v>
+        <v>0.2273335043311562</v>
       </c>
       <c r="F24">
-        <v>1.435706202285104</v>
+        <v>1.224491324245676</v>
       </c>
       <c r="G24">
-        <v>1.016043600427466</v>
+        <v>0.8205018675199938</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001490668169630283</v>
+        <v>0.001475542889233239</v>
       </c>
       <c r="J24">
-        <v>0.6695302993774845</v>
+        <v>0.5713532656189102</v>
       </c>
       <c r="K24">
-        <v>0.61444445973396</v>
+        <v>0.4728662950316505</v>
       </c>
       <c r="L24">
-        <v>0.266384960056854</v>
+        <v>0.1985850067228974</v>
       </c>
       <c r="M24">
-        <v>1.675386403741356</v>
+        <v>0.1617117917958026</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2607611093153395</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.732982907174375</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.129862308954074</v>
+        <v>1.105323860871266</v>
       </c>
       <c r="C25">
-        <v>0.2790613650354885</v>
+        <v>0.3312442261417345</v>
       </c>
       <c r="D25">
-        <v>0.1833451672847985</v>
+        <v>0.2082095168983358</v>
       </c>
       <c r="E25">
-        <v>0.181520061753325</v>
+        <v>0.1888333936763829</v>
       </c>
       <c r="F25">
-        <v>1.306050985010998</v>
+        <v>1.135435765968083</v>
       </c>
       <c r="G25">
-        <v>0.9298306948319635</v>
+        <v>0.7636679683525074</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.003788900734249978</v>
+        <v>0.00283784192709291</v>
       </c>
       <c r="J25">
-        <v>0.6410494443705517</v>
+        <v>0.5652736610509521</v>
       </c>
       <c r="K25">
-        <v>0.5913173800730078</v>
+        <v>0.4715479236455877</v>
       </c>
       <c r="L25">
-        <v>0.2239073087556562</v>
+        <v>0.2069205364751703</v>
       </c>
       <c r="M25">
-        <v>1.369792538512939</v>
+        <v>0.1503559476040088</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2196951665926292</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.416969051372263</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
